--- a/simplefly/bigtest/results_4.xlsx
+++ b/simplefly/bigtest/results_4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellahuang/Documents/Boulder/spring '20/independent study/fireflies/simplefly/bigtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{490D7A4C-FD0B-5A43-BB60-6689EFD4D42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78A0046-AD2A-7A47-AAF7-5A1D51786219}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="480" windowWidth="28040" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="158">
   <si>
     <t>('commonsub_og', 0)</t>
   </si>
@@ -133,9 +133,6 @@
     <t>('[1, 0, 0, 0, 1, 1, 0, 0, 0, 0]', 0)</t>
   </si>
   <si>
-    <t>('[1, 0, 1, 0, 1, 0, 1, 1, 1, 0]', 2)</t>
-  </si>
-  <si>
     <t>('[1, 1, 0, 0, 1, 0, 0, 1, 0, 0]', 3)</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>('commonsub_og', 12)</t>
   </si>
   <si>
-    <t>('[1, 0, 1, 0, 0, 1, 1, 1, 0, 0]', 0)</t>
-  </si>
-  <si>
     <t>('[1, 0, 0, 1, 0, 0, 0, 0, 0, 0]', 1)</t>
   </si>
   <si>
@@ -488,13 +482,25 @@
   </si>
   <si>
     <t>('[1, 0, 1, 1, 0, 1, 0, 1, 1, 0]', 3)</t>
+  </si>
+  <si>
+    <t>('[1, 1, 1, 0, 0, 1, 0, 1, 0, 0]', 0)</t>
+  </si>
+  <si>
+    <t>('[1, 1, 1, 0, 1, 0, 1, 0, 1, 0]', 2)</t>
+  </si>
+  <si>
+    <t>('[1, 1, 1, 1, 1, 1, 0, 1, 1, 0]', 1)</t>
+  </si>
+  <si>
+    <t>('[1, 1, 1, 0, 0, 1, 0, 0, 1, 0]', 3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,8 +635,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +821,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -971,9 +996,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1328,11 +1356,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1344,20 +1372,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
       </c>
       <c r="F1">
         <v>20.3333333333333</v>
@@ -1365,20 +1393,20 @@
       <c r="G1">
         <v>4.6666666666666599</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N1">
         <v>16.3333333333333</v>
@@ -1388,17 +1416,17 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
@@ -1410,19 +1438,19 @@
         <v>6.1666666666666599</v>
       </c>
       <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" t="s">
-        <v>104</v>
-      </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N2">
         <v>20.1666666666666</v>
@@ -1433,19 +1461,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
+      <c r="E3" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="F3">
         <v>21.6666666666666</v>
@@ -1454,16 +1482,16 @@
         <v>7.5</v>
       </c>
       <c r="I3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K3" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M3" t="s">
         <v>24</v>
@@ -1482,7 +1510,7 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
@@ -1498,19 +1526,19 @@
         <v>5.1666666666666599</v>
       </c>
       <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" t="s">
         <v>136</v>
       </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>137</v>
-      </c>
-      <c r="L4" t="s">
-        <v>138</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N4">
         <v>23</v>
@@ -1520,20 +1548,20 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
+      <c r="A5" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
       </c>
       <c r="F5">
         <v>26.3333333333333</v>
@@ -1541,20 +1569,20 @@
       <c r="G5">
         <v>4.1666666666666599</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
         <v>139</v>
       </c>
-      <c r="J5" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>141</v>
-      </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="N5">
         <v>25</v>
@@ -1565,19 +1593,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
         <v>75</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" t="s">
-        <v>79</v>
       </c>
       <c r="F6">
         <v>26.6666666666666</v>
@@ -1586,19 +1614,19 @@
         <v>5.5</v>
       </c>
       <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K6" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" t="s">
         <v>114</v>
       </c>
-      <c r="K6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" t="s">
-        <v>79</v>
+      <c r="M6" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="N6">
         <v>28.3333333333333</v>
@@ -1609,19 +1637,19 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
       </c>
       <c r="F7">
         <v>28</v>
@@ -1629,20 +1657,20 @@
       <c r="G7">
         <v>5.8333333333333304</v>
       </c>
-      <c r="I7" t="s">
-        <v>143</v>
+      <c r="I7" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="J7" t="s">
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N7">
         <v>28.3333333333333</v>
@@ -1653,19 +1681,19 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F8">
         <v>29</v>
@@ -1674,19 +1702,19 @@
         <v>6.1666666666666599</v>
       </c>
       <c r="I8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
         <v>109</v>
       </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
         <v>110</v>
-      </c>
-      <c r="L8" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" t="s">
-        <v>112</v>
       </c>
       <c r="N8">
         <v>29.5</v>
@@ -1697,19 +1725,19 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>71</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>72</v>
-      </c>
-      <c r="D9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
       </c>
       <c r="F9">
         <v>29.3333333333333</v>
@@ -1718,19 +1746,19 @@
         <v>6.1666666666666599</v>
       </c>
       <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
         <v>99</v>
-      </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s">
-        <v>101</v>
       </c>
       <c r="N9">
         <v>29.6666666666666</v>
@@ -1762,19 +1790,19 @@
         <v>5.5</v>
       </c>
       <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" t="s">
+        <v>151</v>
+      </c>
+      <c r="K10" t="s">
         <v>152</v>
-      </c>
-      <c r="J10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" t="s">
-        <v>154</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N10">
         <v>31.6666666666666</v>
@@ -1785,19 +1813,19 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
       </c>
       <c r="F11">
         <v>30.1666666666666</v>
@@ -1806,19 +1834,19 @@
         <v>4.1666666666666599</v>
       </c>
       <c r="I11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
         <v>16</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>34</v>
@@ -1829,19 +1857,19 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>51</v>
       </c>
       <c r="F12">
         <v>30.6666666666666</v>
@@ -1850,19 +1878,19 @@
         <v>5.3333333333333304</v>
       </c>
       <c r="I12" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" t="s">
         <v>148</v>
       </c>
-      <c r="J12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
         <v>149</v>
-      </c>
-      <c r="L12" t="s">
-        <v>150</v>
-      </c>
-      <c r="M12" t="s">
-        <v>151</v>
       </c>
       <c r="N12">
         <v>34.5</v>
@@ -1894,19 +1922,19 @@
         <v>6.1666666666666599</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N13">
         <v>35.1666666666666</v>
@@ -1938,19 +1966,19 @@
         <v>7.5</v>
       </c>
       <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s">
         <v>121</v>
-      </c>
-      <c r="J14" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" t="s">
-        <v>123</v>
       </c>
       <c r="L14" t="s">
         <v>28</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14">
         <v>35.3333333333333</v>
@@ -1982,19 +2010,19 @@
         <v>4.5</v>
       </c>
       <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
         <v>125</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>126</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>127</v>
-      </c>
-      <c r="L15" t="s">
-        <v>128</v>
-      </c>
-      <c r="M15" t="s">
-        <v>129</v>
       </c>
       <c r="N15">
         <v>40.1666666666666</v>
@@ -2026,19 +2054,19 @@
         <v>5.8333333333333304</v>
       </c>
       <c r="I16" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
         <v>92</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
         <v>93</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" t="s">
-        <v>95</v>
       </c>
       <c r="N16">
         <v>42</v>
@@ -2049,19 +2077,19 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
         <v>84</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>85</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
       </c>
       <c r="F17">
         <v>37.1666666666666</v>
@@ -2070,19 +2098,19 @@
         <v>6.3333333333333304</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
         <v>13</v>
       </c>
       <c r="M17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N17">
         <v>58</v>
@@ -2114,19 +2142,19 @@
         <v>5.3333333333333304</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J18" t="s">
-        <v>106</v>
+        <v>144</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s">
         <v>13</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N18">
         <v>58.6666666666666</v>
@@ -2137,19 +2165,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19">
         <v>37.3333333333333</v>
@@ -2158,19 +2186,19 @@
         <v>5.5</v>
       </c>
       <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>129</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19">
         <v>62.8333333333333</v>
@@ -2181,19 +2209,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E20" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F20">
         <v>37.5</v>
@@ -2202,19 +2230,19 @@
         <v>4.5</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L20" t="s">
         <v>13</v>
       </c>
       <c r="M20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N20">
         <v>64.3333333333333</v>
